--- a/Template/TemplateUploadEqpsCrits.xlsx
+++ b/Template/TemplateUploadEqpsCrits.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Altran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imfernandes\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -131,11 +131,50 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -155,42 +194,6 @@
       <numFmt numFmtId="30" formatCode="@"/>
       <protection locked="1" hidden="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -205,20 +208,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H2" insertRow="1" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:H2"/>
-  <sortState ref="A2:B5">
-    <sortCondition ref="A1:A5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H6"/>
+  <sortState ref="A2:H6">
+    <sortCondition descending="1" ref="A1:A6"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Código Designação Equipamento" dataDxfId="9"/>
-    <tableColumn id="2" name="Localização" dataDxfId="8"/>
-    <tableColumn id="3" name="Marca" dataDxfId="7"/>
-    <tableColumn id="4" name="Modelo" dataDxfId="6"/>
-    <tableColumn id="5" name="Nº Série" dataDxfId="5"/>
-    <tableColumn id="6" name="Data de Entrada Funcionamento" dataDxfId="4"/>
-    <tableColumn id="7" name="Código Estado" dataDxfId="3"/>
-    <tableColumn id="8" name="Data de Abate" dataDxfId="2"/>
+    <tableColumn id="1" name="Código Designação Equipamento" dataDxfId="7"/>
+    <tableColumn id="2" name="Localização" dataDxfId="6"/>
+    <tableColumn id="3" name="Marca" dataDxfId="5"/>
+    <tableColumn id="4" name="Modelo" dataDxfId="4"/>
+    <tableColumn id="5" name="Nº Série" dataDxfId="3"/>
+    <tableColumn id="6" name="Data de Entrada Funcionamento" dataDxfId="2"/>
+    <tableColumn id="7" name="Código Estado" dataDxfId="1"/>
+    <tableColumn id="8" name="Data de Abate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -490,7 +493,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,19 +535,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -562,7 +565,6 @@
       <c r="A11" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="A9A6IPnehyTNaDTBP9uYJYb7Y3yJkyjRsbZhAsGgYxYLp+fjS1oSsafeUuFZA7OkcJkCH6VIeUgTnWd3uTKKmw==" saltValue="tVZXL1NIdaSgP3BGxjfd+w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
